--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/13.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/13.xlsx
@@ -88,18 +88,18 @@
     <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
   </si>
   <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
     <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
     <t>PizBuin® After Sun Spray 200ml</t>
   </si>
   <si>
@@ -223,16 +223,16 @@
     <t>5201178035831</t>
   </si>
   <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
     <t>5201178035923</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
   </si>
   <si>
     <t>3574661407692</t>
@@ -1176,7 +1176,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="2">
-        <v>9.9</v>
+        <v>10.45</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>70</v>
       </c>
       <c r="G14" s="2">
-        <v>10.45</v>
+        <v>10.15</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="2">
-        <v>10.15</v>
+        <v>12.7</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1258,10 +1258,10 @@
         <v>104</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1281,7 +1281,7 @@
         <v>72</v>
       </c>
       <c r="G16" s="2">
-        <v>12.7</v>
+        <v>9.9</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>8.19</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2308,10 +2308,10 @@
         <v>105</v>
       </c>
       <c r="K45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L45" s="2">
-        <v>31.48</v>
+        <v>39.35</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2385,11 +2385,11 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="J48" s="5">
-        <v>68</v>
-      </c>
       <c r="K48" s="5">
-        <v>582.36</v>
+        <v>70</v>
+      </c>
+      <c r="L48" s="5">
+        <v>596.61</v>
       </c>
     </row>
   </sheetData>
